--- a/assets/faq/pH.xlsx
+++ b/assets/faq/pH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\hunt\assets\faq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134B7B5-D8B5-4808-AE90-3C2CEA6307E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62B4F2-0A2E-4B52-9D4A-DB7D99CF8690}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
